--- a/PROVC.xlsx
+++ b/PROVC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="153">
   <si>
     <t>Nome</t>
   </si>
@@ -657,12 +657,6 @@
     <t>Empregados</t>
   </si>
   <si>
-    <t>Valor Bruto</t>
-  </si>
-  <si>
-    <t>Valor Líquido</t>
-  </si>
-  <si>
     <t>Valnidete</t>
   </si>
   <si>
@@ -678,9 +672,6 @@
     <t>Tabela de Comissão</t>
   </si>
   <si>
-    <t>Valor Comissão</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -717,20 +708,23 @@
     <t>Codigo Cliente :</t>
   </si>
   <si>
-    <t>Construa as formulas necessarias para que ao Digitar o Codigo do cliente (CAMPO EM AMARELO), as informações aparecçam de acordo com o cadastro da aba "EX2 cadastro Clientes"</t>
-  </si>
-  <si>
     <t>Pede-se: usando a função de ProcV , automatize os dados desta planilha para que possamos digitar o Código do filme na célula C3 e então apareça automaticamente de acordo com os dados que estão na Aba "CADASTRO FILME".</t>
   </si>
   <si>
     <t>Valor Líquido Gatilho</t>
   </si>
   <si>
-    <t>Imposto - 18%</t>
+    <t xml:space="preserve"> - De acordo com a tabela Abaixo, quanto é o valor de Comissão para Cada Vendedor? (preencher campos em amarelo)</t>
+  </si>
+  <si>
+    <t>Construa as formulas necessarias para que ao Digitar o Codigo do cliente (CAMPO EM AMARELO), as informações apareçam de acordo com o cadastro da aba "EX2 cadastro Clientes"</t>
+  </si>
+  <si>
+    <t>Faça a formula do PROCH para que, ao digitar na celula C4,  traga automaticamente os registros dos clientes de acordo com o cadastro na tabela "CADASTRO CLIENTE H".</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Usando a Formula PROCV, faça o calculo de qual o Valor da Comissão de cada empregado (CAMPO VERDE) usando o </t>
+      <t>Usando a Formula PROCV preencha as celulas em Laranja e faça o calculo de qual o Valor de Comissão de cada empregado (CAMPO VERDE). Use o V</t>
     </r>
     <r>
       <rPr>
@@ -741,14 +735,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>VALOR LIQUIDO como base de calculo (faça os calculos necessarios nos campos em amarelo)..</t>
+      <t>ALOR LIQUIDO como base de calculo.(faça os calculos necessarios nos campos em amarelo)..</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> - De acordo com a tabela Abaixo, quando é o valor de Comissão para Cada Vendedor? (preencher campos em amarelo)</t>
-  </si>
-  <si>
-    <t>Faça a formula do PROCH para que, ao digitar na celula C4,  traga automaticamente os registros de dos clientes de acordo com o cadastro na tabela "CADASTRO CLIENTE H".</t>
+    <t>Aliquota de Imposto  (A)</t>
+  </si>
+  <si>
+    <t>Valor Bruto (B)</t>
+  </si>
+  <si>
+    <t>Valor Líquido (D) = B - C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R$ Imposto (C ) =  A * B </t>
+  </si>
+  <si>
+    <t>%Comissão (E)</t>
+  </si>
+  <si>
+    <t>Valor Comissão = E * D</t>
   </si>
 </sst>
 </file>
@@ -765,15 +771,22 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="169" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="171" formatCode="\(00\)\ 0000\-0000"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="170" formatCode="\(00\)\ 0000\-0000"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1175,7 +1188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1672,378 +1685,423 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="7" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="28"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="28"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="17" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="15" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="15" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="16" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="16" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="15" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="15" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="15" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="15" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="14" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="14" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="16" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="27" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="14" borderId="24" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="22" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="27" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="14" borderId="22" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="27" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="14" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="14" borderId="24" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="22" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="14" borderId="22" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="14" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="26" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="26" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="29"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="29"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="29" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="6" borderId="29" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="30" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="30" xfId="14" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="30" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="6" borderId="30" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="31" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="31" xfId="14" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="29" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="30" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="30" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="31" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="26" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="29" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="6" borderId="29" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="30" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="30" xfId="14" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="30" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="6" borderId="30" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="31" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="31" xfId="14" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="29" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="30" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="30" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="31" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="35" xfId="26" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="25" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="26" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="28" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="28" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="15" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="15" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="15" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="4" fillId="15" borderId="30" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="30" fillId="4" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="28" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="30" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="28" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="30" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="37" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="31" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="36" fillId="28" borderId="29" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="15" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="10" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="28" applyFont="1"/>
+    <xf numFmtId="173" fontId="31" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="28" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="30" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="28" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="30" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="37" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="31" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="35" fillId="28" borderId="29" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="18" borderId="34" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="18" borderId="29" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="18" borderId="29" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="18" borderId="38" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="29" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="14" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="28" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="20% - Ênfase1" xfId="25" builtinId="30"/>
@@ -2498,7 +2556,7 @@
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2518,42 +2576,42 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="E5" s="104" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="E5" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="102"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="103"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="135"/>
+      <c r="B6" s="122"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="133" t="s">
-        <v>135</v>
+      <c r="A7" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="119" t="s">
+        <v>132</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>0</v>
@@ -2562,186 +2620,186 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130">
+      <c r="A8" s="117">
         <v>0</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="117">
         <v>99</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="103">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="130">
+      <c r="F8" s="117">
         <v>40</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="118">
         <v>3200</v>
       </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130">
+      <c r="A9" s="117">
         <v>100</v>
       </c>
-      <c r="B9" s="130">
+      <c r="B9" s="117">
         <v>299</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="103">
         <v>0.03</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="130">
+      <c r="F9" s="117">
         <v>250</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="118">
         <v>20000</v>
       </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
       <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130">
+      <c r="A10" s="117">
         <v>300</v>
       </c>
-      <c r="B10" s="130">
+      <c r="B10" s="117">
         <v>499</v>
       </c>
-      <c r="C10" s="115">
+      <c r="C10" s="103">
         <v>0.04</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="130">
+      <c r="F10" s="117">
         <v>500</v>
       </c>
-      <c r="G10" s="131">
+      <c r="G10" s="118">
         <v>40000</v>
       </c>
-      <c r="H10" s="128"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="102"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="101"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130">
+      <c r="A11" s="117">
         <v>500</v>
       </c>
-      <c r="B11" s="130">
+      <c r="B11" s="117">
         <v>799</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="103">
         <v>0.05</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="130">
+      <c r="F11" s="117">
         <v>750</v>
       </c>
-      <c r="G11" s="131">
+      <c r="G11" s="118">
         <v>60000</v>
       </c>
-      <c r="H11" s="128"/>
-      <c r="I11" s="129"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
       <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="130">
+      <c r="A12" s="117">
         <v>800</v>
       </c>
-      <c r="B12" s="130">
+      <c r="B12" s="117">
         <v>999</v>
       </c>
-      <c r="C12" s="115">
+      <c r="C12" s="103">
         <v>0.06</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="130">
+      <c r="F12" s="117">
         <v>900</v>
       </c>
-      <c r="G12" s="131">
+      <c r="G12" s="118">
         <v>72000</v>
       </c>
-      <c r="H12" s="128"/>
-      <c r="I12" s="129"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
       <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="130">
+      <c r="A13" s="117">
         <v>1000</v>
       </c>
-      <c r="B13" s="130">
+      <c r="B13" s="117">
         <v>1499</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="103">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="130">
+      <c r="F13" s="117">
         <v>1200</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="118">
         <v>96000</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="130">
+      <c r="A14" s="117">
         <v>1500</v>
       </c>
-      <c r="B14" s="130" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="115">
+      <c r="B14" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="103">
         <v>0.1</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="130">
+      <c r="F14" s="117">
         <v>2000</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="118">
         <v>160000</v>
       </c>
-      <c r="H14" s="128"/>
-      <c r="I14" s="129"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="130">
+      <c r="F15" s="117">
         <v>3500</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="118">
         <v>280000</v>
       </c>
-      <c r="H15" s="128"/>
-      <c r="I15" s="129"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
@@ -2786,7 +2844,7 @@
   <dimension ref="B1:C99"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2799,18 +2857,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="117"/>
+      <c r="C1" s="123"/>
     </row>
     <row r="2" spans="2:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -3109,7 +3167,7 @@
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4085,7 +4143,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4098,26 +4156,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="132" t="s">
-        <v>150</v>
+      <c r="B1" s="135" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="106"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="98"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="97"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4186,7 +4244,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4820,7 +4878,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -4896,7 +4954,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4915,8 +4973,8 @@
     <row r="1" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="118" t="s">
-        <v>145</v>
+      <c r="C1" s="105" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4941,7 +4999,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+      <c r="C5" s="137"/>
     </row>
     <row r="6" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
@@ -4953,7 +5011,7 @@
         <v>98</v>
       </c>
       <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
+      <c r="C7" s="137"/>
     </row>
     <row r="8" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
@@ -4965,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="57"/>
-      <c r="C9" s="101"/>
+      <c r="C9" s="136"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
@@ -4982,19 +5040,19 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="54" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="54" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>2</v>
       </c>
@@ -5002,10 +5060,13 @@
         <v>97</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="D1" s="145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="59">
         <v>1</v>
       </c>
@@ -5015,8 +5076,11 @@
       <c r="C2" s="61" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D2" s="146">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="63">
         <v>2</v>
       </c>
@@ -5026,8 +5090,11 @@
       <c r="C3" s="65" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D3" s="146">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="63">
         <v>3</v>
       </c>
@@ -5037,8 +5104,11 @@
       <c r="C4" s="65" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D4" s="146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="63">
         <v>4</v>
       </c>
@@ -5048,8 +5118,11 @@
       <c r="C5" s="65" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D5" s="146">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="63">
         <v>5</v>
       </c>
@@ -5059,8 +5132,11 @@
       <c r="C6" s="65" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D6" s="146">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="63">
         <v>6</v>
       </c>
@@ -5070,8 +5146,11 @@
       <c r="C7" s="65" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D7" s="146">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="63">
         <v>7</v>
       </c>
@@ -5081,8 +5160,11 @@
       <c r="C8" s="65" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D8" s="146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="63">
         <v>8</v>
       </c>
@@ -5092,8 +5174,11 @@
       <c r="C9" s="65" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D9" s="146">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="63">
         <v>9</v>
       </c>
@@ -5103,8 +5188,11 @@
       <c r="C10" s="65" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D10" s="146">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="63">
         <v>10</v>
       </c>
@@ -5114,8 +5202,11 @@
       <c r="C11" s="65" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D11" s="146">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="63">
         <v>11</v>
       </c>
@@ -5125,8 +5216,11 @@
       <c r="C12" s="65" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D12" s="146">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="63">
         <v>12</v>
       </c>
@@ -5136,8 +5230,11 @@
       <c r="C13" s="65" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D13" s="146">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="63">
         <v>13</v>
       </c>
@@ -5147,8 +5244,11 @@
       <c r="C14" s="65" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D14" s="146">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="63">
         <v>14</v>
       </c>
@@ -5158,8 +5258,11 @@
       <c r="C15" s="65" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D15" s="146">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="63">
         <v>15</v>
       </c>
@@ -5169,8 +5272,11 @@
       <c r="C16" s="65" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D16" s="146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="63">
         <v>16</v>
       </c>
@@ -5179,6 +5285,9 @@
       </c>
       <c r="C17" s="65" t="s">
         <v>108</v>
+      </c>
+      <c r="D17" s="146">
+        <v>39.99</v>
       </c>
     </row>
   </sheetData>
@@ -5193,190 +5302,224 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="66" customWidth="1"/>
-    <col min="5" max="5" width="17" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="66"/>
+    <col min="2" max="2" width="15.28515625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="66" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="66" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="144">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="128"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="129"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="131"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="112"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="79">
-        <v>9000</v>
-      </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="85"/>
+      <c r="C8" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>152</v>
+      </c>
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="79">
+        <v>9000</v>
+      </c>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="79">
+        <v>3200</v>
+      </c>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="114"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="80">
+        <v>1900</v>
+      </c>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="114"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="79">
-        <v>3200</v>
-      </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="127"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="B12" s="81">
+        <v>4500</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="114"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="67"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="80">
-        <v>1900</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="127"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="81">
-        <v>4500</v>
-      </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="127"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="67"/>
-      <c r="D13" s="78"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="114"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="133"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="69" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="70">
         <v>1500</v>
       </c>
-      <c r="B18" s="71">
+      <c r="B19" s="71">
         <v>0</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
-        <v>2500</v>
-      </c>
-      <c r="B19" s="73">
-        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="74">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="72">
+        <v>2500</v>
+      </c>
+      <c r="B20" s="73">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
         <v>4000</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B21" s="75">
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="76">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="76">
         <v>7000</v>
       </c>
-      <c r="B21" s="77">
+      <c r="B22" s="77">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A5:E6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A6:F7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:J3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
